--- a/Trabalho Final/Tabelas/fun_subfun.xlsx
+++ b/Trabalho Final/Tabelas/fun_subfun.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="fun_subfun" localSheetId="0">Plan1!$A$2:$B$27</definedName>
+    <definedName name="fun_subfun" localSheetId="0">Plan1!$A$2:$B$139</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="101">
   <si>
     <t>2</t>
   </si>
@@ -54,103 +54,289 @@
     <t>92</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>122</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>9</t>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>784</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>573</t>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
     <t>845</t>
+  </si>
+  <si>
+    <t>846</t>
   </si>
   <si>
     <t>cod_fun</t>
@@ -479,9 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -491,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,28 +706,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -547,7 +735,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -555,7 +743,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -563,7 +751,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -571,7 +759,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -579,7 +767,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -587,7 +775,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -595,7 +783,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -603,106 +791,1002 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
